--- a/shogi_data.xlsx
+++ b/shogi_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yossy\OneDrive\デスクトップ\ぴよ将棋\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B3B8EED-28CB-4A39-A94B-530B6A12F83E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D86F87D-312E-47FC-872D-C115F5C4D754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14856" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="11">
   <si>
     <t>対戦日</t>
   </si>
@@ -491,7 +491,7 @@
   <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.2"/>
@@ -966,7 +966,15 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="3"/>
+      <c r="A43" s="3">
+        <v>46000</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
